--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cck-Cckbr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cck-Cckbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,9 +89,6 @@
   </si>
   <si>
     <t>Cckbr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,185 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.1794766666666666</v>
+      </c>
+      <c r="H2">
+        <v>0.53843</v>
+      </c>
+      <c r="I2">
+        <v>0.0361256439470005</v>
+      </c>
+      <c r="J2">
+        <v>0.03612564394700051</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0.83582</v>
+      </c>
+      <c r="N2">
+        <v>2.50746</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0.1500101875333333</v>
+      </c>
+      <c r="R2">
+        <v>1.3500916878</v>
+      </c>
+      <c r="S2">
+        <v>0.0361256439470005</v>
+      </c>
+      <c r="T2">
+        <v>0.03612564394700051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.3771426666666667</v>
+      </c>
+      <c r="H3">
+        <v>1.131428</v>
+      </c>
+      <c r="I3">
+        <v>0.07591249573698883</v>
+      </c>
+      <c r="J3">
+        <v>0.07591249573698884</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.83582</v>
+      </c>
+      <c r="N3">
+        <v>2.50746</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0.3152233836533334</v>
+      </c>
+      <c r="R3">
+        <v>2.83701045288</v>
+      </c>
+      <c r="S3">
+        <v>0.07591249573698883</v>
+      </c>
+      <c r="T3">
+        <v>0.07591249573698884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>4.28019907523077</v>
-      </c>
-      <c r="H2">
-        <v>4.28019907523077</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.409523927584314</v>
-      </c>
-      <c r="N2">
-        <v>0.409523927584314</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1.752843936131254</v>
-      </c>
-      <c r="R2">
-        <v>1.752843936131254</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.411504333333334</v>
+      </c>
+      <c r="H4">
+        <v>13.234513</v>
+      </c>
+      <c r="I4">
+        <v>0.8879618603160108</v>
+      </c>
+      <c r="J4">
+        <v>0.8879618603160107</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.83582</v>
+      </c>
+      <c r="N4">
+        <v>2.50746</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>3.687223551886667</v>
+      </c>
+      <c r="R4">
+        <v>33.18501196698001</v>
+      </c>
+      <c r="S4">
+        <v>0.8879618603160108</v>
+      </c>
+      <c r="T4">
+        <v>0.8879618603160107</v>
       </c>
     </row>
   </sheetData>
